--- a/app/config/tables/geopoints/forms/geopoints/geopoints.xlsx
+++ b/app/config/tables/geopoints/forms/geopoints/geopoints.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\toolsuite\app-designer\app\config\tables\geopoints\forms\geopoints\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25606" windowHeight="16063" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
-    <sheet name="choices" sheetId="2" r:id="rId2"/>
-    <sheet name="settings" sheetId="3" r:id="rId3"/>
+    <sheet name="properties" sheetId="4" r:id="rId2"/>
+    <sheet name="choices" sheetId="2" r:id="rId3"/>
+    <sheet name="settings" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="74">
   <si>
     <t>name</t>
   </si>
@@ -184,6 +190,66 @@
   </si>
   <si>
     <t>data_value</t>
+  </si>
+  <si>
+    <t>partition</t>
+  </si>
+  <si>
+    <t>aspect</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>colOrder</t>
+  </si>
+  <si>
+    <t>array</t>
+  </si>
+  <si>
+    <t>["client_id","step","transportation_mode","transportation_mode_other","description","coordinates_latitude","coordinates_longitude","coordinates_altitude","coordinates_accuracy"]</t>
+  </si>
+  <si>
+    <t>mapListViewFileName</t>
+  </si>
+  <si>
+    <t>configpath</t>
+  </si>
+  <si>
+    <t>config/tables/geopoints/html/geopoints_map_list.html</t>
+  </si>
+  <si>
+    <t>defaultViewType</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>MAP</t>
+  </si>
+  <si>
+    <t>TableMapFragment</t>
+  </si>
+  <si>
+    <t>keyColorRuleType</t>
+  </si>
+  <si>
+    <t>keyMapLatCol</t>
+  </si>
+  <si>
+    <t>keyMapLongCol</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>coordinates_latitude</t>
+  </si>
+  <si>
+    <t>coordinates_longitude</t>
   </si>
 </sst>
 </file>
@@ -420,6 +486,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -747,26 +821,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="34.1640625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="38.1640625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="34.109375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" style="8" customWidth="1"/>
     <col min="5" max="5" width="41.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="10.77734375" style="1"/>
     <col min="7" max="7" width="22.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" style="6"/>
-    <col min="9" max="11" width="10.83203125" style="1"/>
-    <col min="12" max="12" width="45.83203125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="10.77734375" style="6"/>
+    <col min="9" max="11" width="10.77734375" style="1"/>
+    <col min="12" max="12" width="45.77734375" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="30">
+    <row r="1" spans="1:16" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
@@ -816,7 +890,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="30">
+    <row r="2" spans="1:16" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>33</v>
       </c>
@@ -835,7 +909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
@@ -849,7 +923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>50</v>
       </c>
@@ -864,7 +938,7 @@
       </c>
       <c r="H4" s="15"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
@@ -879,7 +953,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>3</v>
       </c>
@@ -891,7 +965,7 @@
       </c>
       <c r="H6" s="15"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>9</v>
       </c>
@@ -903,7 +977,7 @@
       </c>
       <c r="H7" s="15"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="H8" s="15"/>
     </row>
   </sheetData>
@@ -920,18 +994,159 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -942,7 +1157,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -954,7 +1169,7 @@
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -966,7 +1181,7 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -978,7 +1193,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -990,7 +1205,7 @@
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1002,7 +1217,7 @@
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -1025,7 +1240,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -1033,13 +1248,13 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="20.77734375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
@@ -1050,7 +1265,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
@@ -1058,7 +1273,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>46</v>
       </c>
@@ -1066,7 +1281,7 @@
         <v>20140512</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30">
+    <row r="4" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>47</v>
       </c>
@@ -1074,7 +1289,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>48</v>
       </c>

--- a/app/config/tables/geopoints/forms/geopoints/geopoints.xlsx
+++ b/app/config/tables/geopoints/forms/geopoints/geopoints.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25606" windowHeight="16063" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25606" windowHeight="16063" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="69">
   <si>
     <t>name</t>
   </si>
@@ -35,24 +35,15 @@
     <t>type</t>
   </si>
   <si>
-    <t>constraint</t>
-  </si>
-  <si>
     <t>text</t>
   </si>
   <si>
-    <t>appearance</t>
-  </si>
-  <si>
     <t>transportation</t>
   </si>
   <si>
     <t>Walk</t>
   </si>
   <si>
-    <t>image</t>
-  </si>
-  <si>
     <t>Mode of Transportation</t>
   </si>
   <si>
@@ -62,31 +53,13 @@
     <t>Record your location:</t>
   </si>
   <si>
-    <t>relevant</t>
-  </si>
-  <si>
     <t>Client ID</t>
   </si>
   <si>
-    <t>constraint_message</t>
-  </si>
-  <si>
     <t>required</t>
   </si>
   <si>
-    <t>calculation</t>
-  </si>
-  <si>
     <t>default</t>
-  </si>
-  <si>
-    <t>read_only</t>
-  </si>
-  <si>
-    <t>audio</t>
-  </si>
-  <si>
-    <t>media::image</t>
   </si>
   <si>
     <t>Specify other mode of transportation.</t>
@@ -250,12 +223,24 @@
   </si>
   <si>
     <t>coordinates_longitude</t>
+  </si>
+  <si>
+    <t>clause</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>end if</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -320,7 +305,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -359,10 +344,45 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -401,14 +421,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -416,9 +433,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -430,9 +444,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -447,6 +458,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="33">
@@ -819,166 +848,151 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="34.109375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="41.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" style="1"/>
-    <col min="7" max="7" width="22.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.77734375" style="6"/>
-    <col min="9" max="11" width="10.77734375" style="1"/>
-    <col min="12" max="12" width="45.77734375" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.77734375" style="1"/>
+    <col min="1" max="1" width="10.77734375" style="1"/>
+    <col min="2" max="2" width="40.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="34.109375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="38.109375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="41.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" style="4"/>
+    <col min="9" max="16384" width="10.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="31.45" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="C2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="D4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="E6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="2" t="s">
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="31.45" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="15"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="15"/>
-      <c r="L5" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="15"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="15"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="H8" s="15"/>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H10" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -996,7 +1010,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -1011,121 +1025,121 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" t="s">
         <v>57</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1148,86 +1162,86 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="3"/>
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="3"/>
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="3"/>
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="3"/>
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="3"/>
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="3"/>
+      <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1256,26 +1270,26 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B3" s="1">
         <v>20140512</v>
@@ -1283,18 +1297,18 @@
     </row>
     <row r="4" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/geopoints/forms/geopoints/geopoints.xlsx
+++ b/app/config/tables/geopoints/forms/geopoints/geopoints.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\toolsuite\app-designer\app\config\tables\geopoints\forms\geopoints\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25606" windowHeight="16063" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -129,9 +124,6 @@
     <t>display.hint</t>
   </si>
   <si>
-    <t>selected(data('transportation_mode)', 'Other')</t>
-  </si>
-  <si>
     <t>setting_name</t>
   </si>
   <si>
@@ -235,12 +227,15 @@
   </si>
   <si>
     <t>end if</t>
+  </si>
+  <si>
+    <t>selected(data('transportation_mode)', 'Other'))</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -346,7 +341,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -381,7 +376,7 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -851,34 +846,34 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" style="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="40.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="7" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="34.109375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="38.109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="34.1640625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="38.1640625" style="6" customWidth="1"/>
     <col min="7" max="7" width="41.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.77734375" style="4"/>
-    <col min="9" max="16384" width="10.77734375" style="1"/>
+    <col min="8" max="8" width="10.83203125" style="4"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="16" customFormat="1">
       <c r="A1" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>0</v>
@@ -893,7 +888,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="31.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="31.5">
       <c r="C2" s="7" t="s">
         <v>24</v>
       </c>
@@ -911,7 +906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
@@ -925,9 +920,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="C4" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>3</v>
@@ -940,16 +935,16 @@
       </c>
       <c r="H4" s="12"/>
     </row>
-    <row r="5" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="17.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="H5" s="12"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="C6" s="7" t="s">
         <v>2</v>
       </c>
@@ -961,13 +956,13 @@
       </c>
       <c r="H6" s="12"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H7" s="12"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="C8" s="7" t="s">
         <v>2</v>
       </c>
@@ -979,7 +974,7 @@
       </c>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="C9" s="7" t="s">
         <v>6</v>
       </c>
@@ -991,7 +986,7 @@
       </c>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="H10" s="12"/>
     </row>
   </sheetData>
@@ -1014,136 +1009,141 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" customWidth="1"/>
     <col min="3" max="3" width="20.6640625" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" customWidth="1"/>
+    <col min="5" max="5" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
         <v>45</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>46</v>
-      </c>
-      <c r="C1" t="s">
-        <v>47</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
         <v>49</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>50</v>
       </c>
-      <c r="E2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
         <v>52</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>53</v>
       </c>
-      <c r="E3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" t="s">
         <v>55</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>56</v>
       </c>
-      <c r="E4" t="s">
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>58</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1155,23 +1155,23 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
         <v>43</v>
-      </c>
-      <c r="B1" t="s">
-        <v>44</v>
       </c>
       <c r="C1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1195,7 +1195,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1219,7 +1219,7 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -1262,53 +1262,53 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.77734375" style="1"/>
+    <col min="1" max="1" width="20.83203125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1">
         <v>20140512</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="31.5">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/geopoints/forms/geopoints/geopoints.xlsx
+++ b/app/config/tables/geopoints/forms/geopoints/geopoints.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
@@ -229,7 +229,7 @@
     <t>end if</t>
   </si>
   <si>
-    <t>selected(data('transportation_mode)', 'Other'))</t>
+    <t>selected(data('transportation_mode'), 'Other')</t>
   </si>
 </sst>
 </file>
@@ -846,7 +846,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -888,7 +888,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="31.5">
+    <row r="2" spans="1:8" ht="30">
       <c r="C2" s="7" t="s">
         <v>24</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>20140512</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="31.5">
+    <row r="4" spans="1:3" ht="30">
       <c r="A4" s="1" t="s">
         <v>37</v>
       </c>

--- a/app/config/tables/geopoints/forms/geopoints/geopoints.xlsx
+++ b/app/config/tables/geopoints/forms/geopoints/geopoints.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\toolsuite\app-designer\app\config\tables\geopoints\forms\geopoints\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25606" windowHeight="16063" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="70">
   <si>
     <t>name</t>
   </si>
@@ -121,18 +126,12 @@
     <t>display.text</t>
   </si>
   <si>
-    <t>display.hint</t>
-  </si>
-  <si>
     <t>setting_name</t>
   </si>
   <si>
     <t>value</t>
   </si>
   <si>
-    <t>display.title</t>
-  </si>
-  <si>
     <t>form_version</t>
   </si>
   <si>
@@ -230,12 +229,21 @@
   </si>
   <si>
     <t>selected(data('transportation_mode'), 'Other')</t>
+  </si>
+  <si>
+    <t>display.hint.text</t>
+  </si>
+  <si>
+    <t>display.prompt.text</t>
+  </si>
+  <si>
+    <t>display.title.text</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -845,50 +853,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="10.77734375" style="1"/>
     <col min="2" max="2" width="40.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" style="7" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="34.1640625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="38.1640625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="34.109375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="38.109375" style="6" customWidth="1"/>
     <col min="7" max="7" width="41.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" style="4"/>
-    <col min="9" max="16384" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="10.77734375" style="4"/>
+    <col min="9" max="16384" width="10.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="16" customFormat="1">
+    <row r="1" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>64</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>66</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="H1" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30">
+    <row r="2" spans="1:8" ht="31.45" x14ac:dyDescent="0.3">
       <c r="C2" s="7" t="s">
         <v>24</v>
       </c>
@@ -906,7 +914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
@@ -920,9 +928,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>3</v>
@@ -935,16 +943,16 @@
       </c>
       <c r="H4" s="12"/>
     </row>
-    <row r="5" spans="1:8" ht="17.75" customHeight="1">
+    <row r="5" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H5" s="12"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C6" s="7" t="s">
         <v>2</v>
       </c>
@@ -956,13 +964,13 @@
       </c>
       <c r="H6" s="12"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H7" s="12"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C8" s="7" t="s">
         <v>2</v>
       </c>
@@ -974,7 +982,7 @@
       </c>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C9" s="7" t="s">
         <v>6</v>
       </c>
@@ -986,7 +994,7 @@
       </c>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H10" s="12"/>
     </row>
   </sheetData>
@@ -1009,132 +1017,132 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" customWidth="1"/>
     <col min="3" max="3" width="20.6640625" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
         <v>44</v>
-      </c>
-      <c r="B1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" t="s">
-        <v>46</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s">
         <v>48</v>
       </c>
-      <c r="D2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" t="s">
         <v>51</v>
       </c>
-      <c r="D3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" t="s">
         <v>54</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>55</v>
-      </c>
-      <c r="E4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>57</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>55</v>
-      </c>
-      <c r="E5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>57</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>55</v>
-      </c>
-      <c r="E6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>57</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1155,23 +1163,23 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1183,7 +1191,7 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1195,7 +1203,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1207,7 +1215,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1219,7 +1227,7 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1231,7 +1239,7 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -1258,57 +1266,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="20.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" style="1"/>
+    <col min="3" max="3" width="14.44140625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B3" s="1">
         <v>20140512</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30">
+    <row r="4" spans="1:3" ht="19.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/geopoints/forms/geopoints/geopoints.xlsx
+++ b/app/config/tables/geopoints/forms/geopoints/geopoints.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25606" windowHeight="16063" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25606" windowHeight="16063" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="69">
   <si>
     <t>name</t>
   </si>
@@ -121,9 +121,6 @@
   </si>
   <si>
     <t>coordinates</t>
-  </si>
-  <si>
-    <t>display.text</t>
   </si>
   <si>
     <t>setting_name</t>
@@ -872,25 +869,25 @@
   <sheetData>
     <row r="1" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H1" s="18" t="s">
         <v>9</v>
@@ -930,7 +927,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>3</v>
@@ -945,10 +942,10 @@
     </row>
     <row r="5" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H5" s="12"/>
     </row>
@@ -966,7 +963,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H7" s="12"/>
     </row>
@@ -1028,121 +1025,121 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
         <v>42</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>43</v>
-      </c>
-      <c r="C1" t="s">
-        <v>44</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
         <v>46</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>47</v>
-      </c>
-      <c r="E2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
         <v>49</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>50</v>
-      </c>
-      <c r="E3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" t="s">
         <v>52</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>53</v>
-      </c>
-      <c r="E4" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1159,24 +1156,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" t="s">
-        <v>41</v>
-      </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1266,7 +1264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -1280,13 +1278,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1294,12 +1292,12 @@
         <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1">
         <v>20140512</v>
@@ -1307,7 +1305,7 @@
     </row>
     <row r="4" spans="1:3" ht="19.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>22</v>
@@ -1315,10 +1313,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
